--- a/documents/rozvrh-velka-telocvicna.xlsx
+++ b/documents/rozvrh-velka-telocvicna.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\Rozvrhy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA433F32-77A7-4741-BBFF-C12DBB7E639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284652C2-38EB-4D82-8571-2842153F2083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="760" windowWidth="18840" windowHeight="9810" xr2:uid="{AA13720D-26AA-412C-8553-9096A3273328}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3664C64-DF56-4432-93EA-2E530B63F2E3}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">List1!$A$2:$L$10</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t xml:space="preserve">Rozvrh lekcí v Café Pilates - Tělocvična </t>
   </si>
   <si>
+    <t>7:00 - 8:00</t>
+  </si>
+  <si>
     <t>8:00 - 9:00</t>
   </si>
   <si>
@@ -42,6 +42,9 @@
     <t>10:00 - 11:00</t>
   </si>
   <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
     <t>13:00 - 14:00</t>
   </si>
   <si>
@@ -63,115 +66,46 @@
     <t>Po</t>
   </si>
   <si>
+    <t>Pilates level I s Kristýnou</t>
+  </si>
+  <si>
+    <t>SM systém -  spirální stabilizace páteře                      s Veronikou</t>
+  </si>
+  <si>
     <t>Pilates level I - začátečníci                         s Janou</t>
   </si>
   <si>
     <t>Út</t>
   </si>
   <si>
-    <t>8:15 Pilates level II            s Veronikou</t>
+    <t>Pilates level I zaměřeno na záda          s Mirkou</t>
+  </si>
+  <si>
+    <t>Bodystyling level I s Terkou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POWER JÓGA        s Danou Dobeš Rychtovou</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>Pilates level II          s Terkou</t>
   </si>
   <si>
     <t>Bodystyling  &amp; baby     s Karolínou</t>
   </si>
   <si>
-    <t>St</t>
-  </si>
-  <si>
-    <t>Pilates level II          s Terkou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bodystyling                          s Helenou</t>
+    <t>Pilates level I  s Veronikou</t>
+  </si>
+  <si>
+    <t>Barre                Žofie</t>
   </si>
   <si>
     <t>Čt</t>
   </si>
   <si>
-    <t xml:space="preserve"> POWER JÓGA        s Danou Dobeš Rychtovou</t>
-  </si>
-  <si>
-    <t>Pá</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bodystyling s Karolínou</t>
-  </si>
-  <si>
-    <t>Pilates level I                        s Helenou</t>
-  </si>
-  <si>
-    <t>So</t>
-  </si>
-  <si>
-    <t>Ne</t>
-  </si>
-  <si>
-    <t>9:45 - 10:45 Bodystyling s Karolínou</t>
-  </si>
-  <si>
-    <t>10:30 Bodystyling  &amp; baby     s Karolínou</t>
-  </si>
-  <si>
-    <t>8:30 - 9:30                Bodystyling s Karolínou</t>
-  </si>
-  <si>
-    <t>11:00 - 12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bodystyling - střed těla              s Helenou</t>
-  </si>
-  <si>
-    <t>bodystyling level II s Karolínou</t>
-  </si>
-  <si>
-    <t>BOSU míče s Karolínou</t>
-  </si>
-  <si>
     <t xml:space="preserve">15:15 Soukromá lekce </t>
-  </si>
-  <si>
-    <t>Barre                Žofie</t>
-  </si>
-  <si>
-    <t>Pilates level I s Kristýnou</t>
-  </si>
-  <si>
-    <t>Pilates level I zaměřeno na záda s Kristýnou</t>
-  </si>
-  <si>
-    <t>8:30 - 9:30  Pilates level II s Veronikou</t>
-  </si>
-  <si>
-    <t>Pilates level I zaměřeno na záda          s Mirkou</t>
-  </si>
-  <si>
-    <t>Barre                 Danča N.</t>
-  </si>
-  <si>
-    <t>Pilates level II - pokročilí se Žofíí</t>
-  </si>
-  <si>
-    <t>Pilates level I  s Veronikou</t>
-  </si>
-  <si>
-    <t>7:30 - 8:30      Pilates level I se Žofkou</t>
-  </si>
-  <si>
-    <t>Bodystyling level I s Terkou</t>
-  </si>
-  <si>
-    <t>SM systém -  spirální stabilizace páteře                      s Veronikou</t>
-  </si>
-  <si>
-    <t>7:00 - 8:00</t>
-  </si>
-  <si>
-    <t>9:15 Port de Bras s Anežkou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Port de Bras s Anežkou</t>
-  </si>
-  <si>
-    <t>Pilates level I s Kristýnou R.</t>
   </si>
   <si>
     <r>
@@ -214,7 +148,67 @@
     </r>
   </si>
   <si>
-    <t>Pilates level II - pokročilí se Zuzkou</t>
+    <t>Pá</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bodystyling s Karolínou</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>9:45 - 10:45 Bodystyling s Karolínou</t>
+  </si>
+  <si>
+    <t>BOSU míče s Karolínou</t>
+  </si>
+  <si>
+    <t>bodystyling level II s Karolínou</t>
+  </si>
+  <si>
+    <t>Barre Žofka</t>
+  </si>
+  <si>
+    <t>Pilates level I zaměřeno na záda s Tomášem</t>
+  </si>
+  <si>
+    <t>Pilates level II s Kristýnou R.</t>
+  </si>
+  <si>
+    <t>Pilates level II Žofie</t>
+  </si>
+  <si>
+    <t>Barre Žofie</t>
+  </si>
+  <si>
+    <t>Barre Helena</t>
+  </si>
+  <si>
+    <t>Pilates level II se Zuzkou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pilates level II s Veronikou</t>
+  </si>
+  <si>
+    <t>Pilates level II - pokročilí s Kristýnou R.</t>
+  </si>
+  <si>
+    <t>PortDeBras   Anežka</t>
+  </si>
+  <si>
+    <t>Bodystyling level I - začátečníci s Karolínou</t>
+  </si>
+  <si>
+    <t>Bodystyling s Helenou</t>
+  </si>
+  <si>
+    <t>Pilates level II s Helenou</t>
+  </si>
+  <si>
+    <t>8:30 - 9:30 Bodystyling  &amp; baby     s Karolínou</t>
   </si>
 </sst>
 </file>
@@ -274,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +281,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -399,6 +399,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -510,21 +525,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -533,74 +533,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -914,20 +926,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4066F3F3-A320-43B7-95A0-0F99460BAC21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73547D7-E1E4-4519-A706-6D2A09B3AF3E}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" style="1" customWidth="1"/>
     <col min="3" max="4" width="12.453125" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" customWidth="1"/>
     <col min="9" max="9" width="12.08984375" customWidth="1"/>
@@ -938,238 +950,248 @@
   <sheetData>
     <row r="1" spans="1:13" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="12" t="s">
+    <row r="4" spans="1:13" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="65.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="L8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="15" t="s">
+    <row r="9" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="D9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="15" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1177,6 +1199,6 @@
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/rozvrh-velka-telocvicna.xlsx
+++ b/documents/rozvrh-velka-telocvicna.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\Rozvrhy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284652C2-38EB-4D82-8571-2842153F2083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53617E47-0307-4963-88EC-B0C17CE1B4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3664C64-DF56-4432-93EA-2E530B63F2E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t xml:space="preserve">Rozvrh lekcí v Café Pilates - Tělocvična </t>
   </si>
@@ -81,9 +81,6 @@
     <t>Pilates level I zaměřeno na záda          s Mirkou</t>
   </si>
   <si>
-    <t>Bodystyling level I s Terkou</t>
-  </si>
-  <si>
     <t xml:space="preserve"> POWER JÓGA        s Danou Dobeš Rychtovou</t>
   </si>
   <si>
@@ -94,12 +91,6 @@
   </si>
   <si>
     <t>Bodystyling  &amp; baby     s Karolínou</t>
-  </si>
-  <si>
-    <t>Pilates level I  s Veronikou</t>
-  </si>
-  <si>
-    <t>Barre                Žofie</t>
   </si>
   <si>
     <t>Čt</t>
@@ -163,27 +154,12 @@
     <t>9:45 - 10:45 Bodystyling s Karolínou</t>
   </si>
   <si>
-    <t>BOSU míče s Karolínou</t>
-  </si>
-  <si>
     <t>bodystyling level II s Karolínou</t>
   </si>
   <si>
-    <t>Barre Žofka</t>
-  </si>
-  <si>
     <t>Pilates level I zaměřeno na záda s Tomášem</t>
   </si>
   <si>
-    <t>Pilates level II s Kristýnou R.</t>
-  </si>
-  <si>
-    <t>Pilates level II Žofie</t>
-  </si>
-  <si>
-    <t>Barre Žofie</t>
-  </si>
-  <si>
     <t>Barre Helena</t>
   </si>
   <si>
@@ -199,9 +175,6 @@
     <t>PortDeBras   Anežka</t>
   </si>
   <si>
-    <t>Bodystyling level I - začátečníci s Karolínou</t>
-  </si>
-  <si>
     <t>Bodystyling s Helenou</t>
   </si>
   <si>
@@ -209,6 +182,24 @@
   </si>
   <si>
     <t>8:30 - 9:30 Bodystyling  &amp; baby     s Karolínou</t>
+  </si>
+  <si>
+    <t>Barre Kateřina R.</t>
+  </si>
+  <si>
+    <t>Pilates level II Veronika L.</t>
+  </si>
+  <si>
+    <t>Barre s Helenou</t>
+  </si>
+  <si>
+    <t>Bodystyling s Terkou</t>
+  </si>
+  <si>
+    <t>Pilates level I   Anežka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pilates        s Danou Dobeš Rychtovou</t>
   </si>
 </sst>
 </file>
@@ -268,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +272,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -533,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -543,76 +528,65 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -930,40 +904,41 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.08984375" customWidth="1"/>
     <col min="2" max="2" width="4.7265625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
     <col min="11" max="11" width="12.08984375" customWidth="1"/>
     <col min="12" max="12" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
@@ -1001,197 +976,193 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="22" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="33" t="s">
-        <v>43</v>
+      <c r="L4" s="20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>19</v>
+      <c r="K5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="16" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
+    <row r="8" spans="1:13" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="K8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L8" s="35"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="65.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>38</v>
+      <c r="A10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
